--- a/labs/aula3/aula3.xlsx
+++ b/labs/aula3/aula3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ex_1.s</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t xml:space="preserve">sem forwarding a execução está mal. Operações que necessitam do resultado da instrução anterior são iniciadas antes desse mesmo resultado ter sido escrito na memória.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">para o programa 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com a unidade de forwarding ligada, não é necessário os nops, o resultado das operaçoes que sao necessarios para a realizaçao de outra instrucao estao disponiveis antes da ultima stage do pipeline e por isso sao disponiveis mais cedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">para o programa 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mesmo com o forwarding ativo, ainda é necessario um nop para a correta execução do programa</t>
   </si>
 </sst>
 </file>
@@ -644,6 +656,26 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="11" ht="14.25">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
